--- a/Tables/UNI_PERM_Biomass_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Biomass_Boxplot.xlsx
@@ -136,7 +136,7 @@
         <v>0.04473825228732664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0082</v>
+        <v>0.0084</v>
       </c>
     </row>
     <row r="3">
@@ -159,7 +159,7 @@
         <v>9.808707663988736E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6953</v>
+        <v>0.6954</v>
       </c>
     </row>
     <row r="4">
@@ -182,7 +182,7 @@
         <v>0.0012184276996544507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6766</v>
+        <v>0.6704</v>
       </c>
     </row>
     <row r="5">

--- a/Tables/UNI_PERM_Biomass_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Biomass_Boxplot.xlsx
@@ -398,7 +398,7 @@
         <v>0.0465828837782763</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0081</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.000774333199317747</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7411</v>
+        <v>0.7304</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.001561685137529</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6343</v>
+        <v>0.6368</v>
       </c>
     </row>
     <row r="5">

--- a/Tables/UNI_PERM_Biomass_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Biomass_Boxplot.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.34768293483518</v>
+        <v>0.122138312895883</v>
       </c>
       <c r="C2" t="n">
-        <v>7.34768293483518</v>
+        <v>0.122138312895883</v>
       </c>
       <c r="D2" t="n">
-        <v>7.05295823772512</v>
+        <v>0.117239193324036</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0465828837782763</v>
+        <v>0.00077433319931779</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009</v>
+        <v>0.7322</v>
       </c>
     </row>
     <row r="3">
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.122138312895876</v>
+        <v>7.34768293483517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122138312895876</v>
+        <v>7.34768293483517</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11723919332403</v>
+        <v>7.05295823772511</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000774333199317747</v>
+        <v>0.0465828837782763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7304</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="4">
@@ -426,19 +426,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.246330117500341</v>
+        <v>0.246330117500345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.246330117500341</v>
+        <v>0.246330117500345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236449510251329</v>
+        <v>0.236449510251333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001561685137529</v>
+        <v>0.00156168513752902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6368</v>
+        <v>0.6317</v>
       </c>
     </row>
     <row r="5">

--- a/Tables/UNI_PERM_Biomass_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Biomass_Boxplot.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.122138312895883</v>
+        <v>0.200908310620848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122138312895883</v>
+        <v>0.200908310620848</v>
       </c>
       <c r="D2" t="n">
-        <v>0.117239193324036</v>
+        <v>0.190099000331555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00077433319931779</v>
+        <v>0.00125887971024484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7322</v>
+        <v>0.6722</v>
       </c>
     </row>
     <row r="3">
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.34768293483517</v>
+        <v>6.83085533184107</v>
       </c>
       <c r="C3" t="n">
-        <v>7.34768293483517</v>
+        <v>6.83085533184107</v>
       </c>
       <c r="D3" t="n">
-        <v>7.05295823772511</v>
+        <v>6.46334024699978</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0465828837782763</v>
+        <v>0.0428017395313272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0062</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="4">
@@ -426,19 +426,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.246330117500345</v>
+        <v>0.373120665870231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.246330117500345</v>
+        <v>0.373120665870231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236449510251333</v>
+        <v>0.353045950990217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00156168513752902</v>
+        <v>0.00233795224441222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6317</v>
+        <v>0.5579</v>
       </c>
     </row>
     <row r="5">
@@ -446,14 +446,14 @@
         <v>144</v>
       </c>
       <c r="B5" t="n">
-        <v>150.017383763432</v>
+        <v>152.18805295632</v>
       </c>
       <c r="C5" t="n">
-        <v>1.04178738724605</v>
+        <v>1.05686147886333</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.951081097884877</v>
+        <v>0.953601428514016</v>
       </c>
       <c r="F5"/>
     </row>
@@ -462,7 +462,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="n">
-        <v>157.733535128663</v>
+        <v>159.592937264652</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
